--- a/spec/files/0_1_09_outputvars.xlsx
+++ b/spec/files/0_1_09_outputvars.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="4060" windowWidth="28800" windowHeight="16840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="501">
   <si>
     <t>type</t>
   </si>
@@ -1440,9 +1440,6 @@
   </si>
   <si>
     <t>some note</t>
-  </si>
-  <si>
-    <t>Output Vars</t>
   </si>
   <si>
     <t>nsga</t>
@@ -4617,7 +4614,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4667,10 +4664,10 @@
         <v>456</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>457</v>
@@ -4684,10 +4681,10 @@
         <v>456</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>459</v>
@@ -4707,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>460</v>
@@ -4731,7 +4728,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B11" s="25" t="b">
         <v>1</v>
@@ -4739,7 +4736,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B12" s="27" t="b">
         <v>1</v>
@@ -4747,18 +4744,18 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4780,7 +4777,7 @@
         <v>462</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
@@ -4862,7 +4859,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>48</v>
@@ -5350,7 +5347,7 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D14" t="s">
         <v>76</v>
@@ -5484,7 +5481,7 @@
         <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>76</v>
@@ -5609,7 +5606,7 @@
         <v>265</v>
       </c>
       <c r="C24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>76</v>
@@ -5736,7 +5733,7 @@
         <v>275</v>
       </c>
       <c r="C29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>76</v>
@@ -5863,7 +5860,7 @@
         <v>337</v>
       </c>
       <c r="C34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>76</v>
@@ -6008,25 +6005,25 @@
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>475</v>
-      </c>
       <c r="F2" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>497</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>498</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -6036,14 +6033,14 @@
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -6058,13 +6055,13 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" t="s">
         <v>479</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>480</v>
-      </c>
-      <c r="C4" t="s">
-        <v>481</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -6084,13 +6081,13 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" t="s">
         <v>482</v>
-      </c>
-      <c r="B5" t="s">
-        <v>482</v>
-      </c>
-      <c r="C5" t="s">
-        <v>483</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -6111,13 +6108,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C6" t="s">
         <v>484</v>
-      </c>
-      <c r="B6" t="s">
-        <v>484</v>
-      </c>
-      <c r="C6" t="s">
-        <v>485</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -6137,13 +6134,13 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" t="s">
         <v>487</v>
       </c>
-      <c r="B7" t="s">
-        <v>488</v>
-      </c>
       <c r="C7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>

--- a/spec/files/0_1_09_outputvars.xlsx
+++ b/spec/files/0_1_09_outputvars.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="28260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="499">
   <si>
     <t>type</t>
   </si>
@@ -1494,12 +1494,6 @@
   </si>
   <si>
     <t>fans_electricity</t>
-  </si>
-  <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
   </si>
   <si>
     <t>Simulate Data Point Filename</t>
@@ -2914,7 +2908,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2974,9 +2968,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4611,11 +4602,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4664,10 +4653,10 @@
         <v>456</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>457</v>
@@ -4681,10 +4670,10 @@
         <v>456</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>459</v>
@@ -4704,7 +4693,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>460</v>
@@ -4730,159 +4719,143 @@
       <c r="A11" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B11" s="25" t="b">
-        <v>1</v>
+      <c r="B11" s="25" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B12" s="27" t="b">
-        <v>1</v>
+      <c r="B12" s="25" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="25"/>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A17" s="12" t="s">
+      <c r="B13" s="25"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B16" s="25" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A20" s="12" t="s">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A18" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="14" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14" t="s">
         <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="25">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B21" s="25">
         <v>20</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A25" s="12" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B23" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B24" s="25" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A28" s="12" t="s">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E26" s="14" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28">
-      <c r="A29" s="1" t="s">
+    <row r="27" spans="1:5" ht="28">
+      <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B27" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A31" s="12" t="s">
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B29" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="14"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4894,7 +4867,7 @@
           <x14:formula1>
             <xm:f>[1]Lookups!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B21</xm:sqref>
+          <xm:sqref>B19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4957,14 +4930,14 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
@@ -5347,7 +5320,7 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D14" t="s">
         <v>76</v>
@@ -5481,7 +5454,7 @@
         <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>76</v>
@@ -5606,7 +5579,7 @@
         <v>265</v>
       </c>
       <c r="C24" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>76</v>
@@ -5733,7 +5706,7 @@
         <v>275</v>
       </c>
       <c r="C29" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>76</v>
@@ -5860,7 +5833,7 @@
         <v>337</v>
       </c>
       <c r="C34" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>76</v>
@@ -5996,51 +5969,51 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>497</v>
+      <c r="F2" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>495</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:22" s="16" customFormat="1" ht="30">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="29" t="s">
-        <v>498</v>
+      <c r="F3" s="29"/>
+      <c r="G3" s="28" t="s">
+        <v>496</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
